--- a/117Docs/JobStatsBurnupChart1.xlsx
+++ b/117Docs/JobStatsBurnupChart1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dates</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Estimated work</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -75,10 +69,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -202,11 +196,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1246146471"/>
-        <c:axId val="1843988646"/>
+        <c:axId val="549825837"/>
+        <c:axId val="415240036"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1246146471"/>
+        <c:axId val="549825837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -238,10 +232,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1843988646"/>
+        <c:crossAx val="415240036"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1843988646"/>
+        <c:axId val="415240036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246146471"/>
+        <c:crossAx val="549825837"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -359,13 +353,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" s="3">
+        <v>43563.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="C2" s="4">
         <v>62.0</v>
       </c>
       <c r="D2" s="2">
@@ -376,13 +370,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43564.0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>58.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>62.0</v>
       </c>
       <c r="D3" s="2">
@@ -393,223 +387,223 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43565.0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>52.0</v>
       </c>
-      <c r="C4" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D4" s="4">
         <v>10.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43566.0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>48.0</v>
       </c>
-      <c r="C5" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D5" s="4">
         <v>15.0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43567.0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>44.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>62.0</v>
       </c>
       <c r="D6" s="2">
         <v>20.0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>20.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43568.0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>40.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>62.0</v>
       </c>
       <c r="D7" s="2">
         <v>25.0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>24.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43569.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>35.0</v>
       </c>
-      <c r="C8" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D8" s="4">
         <v>30.0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>28.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43570.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>30.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>62.0</v>
       </c>
       <c r="D9" s="2">
         <v>30.0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>32.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43571.0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>26.0</v>
       </c>
-      <c r="C10" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D10" s="4">
         <v>35.0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>36.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43572.0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>22.0</v>
       </c>
-      <c r="C11" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D11" s="4">
         <v>40.0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>40.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43573.0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>18.0</v>
       </c>
-      <c r="C12" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D12" s="4">
         <v>45.0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>44.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43574.0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>14.0</v>
       </c>
-      <c r="C13" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D13" s="4">
         <v>50.0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>48.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43575.0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>9.0</v>
       </c>
-      <c r="C14" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D14" s="4">
         <v>50.0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>52.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43576.0</v>
       </c>
       <c r="B15" s="2">
         <v>5.0</v>
       </c>
-      <c r="C15" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D15" s="4">
         <v>56.0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>57.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43577.0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="D16" s="4">
         <v>56.0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>62.0</v>
       </c>
     </row>
